--- a/Software/BSC_Sincronizacion/Maquetado/V_Sincronizar.xlsx
+++ b/Software/BSC_Sincronizacion/Maquetado/V_Sincronizar.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SKYLINE\Documents\GitHub\SES_reportes\Software\BSC_Sincronizacion\Maquetado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5F98D48-A4FA-4966-8241-5544FB8763A4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{F4531778-C8BE-400D-986F-BB15800FE141}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,12 +25,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>jorge onofre</author>
   </authors>
   <commentList>
-    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{323B6892-EF2B-4EEE-BD3D-2F72BDCDBE95}">
+    <comment ref="G3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -54,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{BD036004-8E67-44C9-AAC9-EA54FAFDBCC5}">
+    <comment ref="C5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -78,7 +78,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{E37FFBFA-7BE8-4867-8BA3-C1E126EE6971}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -102,7 +102,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{AB3AB974-DCA8-4DD2-A09A-69CA414399AE}">
+    <comment ref="F5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -126,7 +126,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{01E6F821-87B7-4937-AED8-30230CF9F602}">
+    <comment ref="C6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -150,7 +150,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{3F3C6FC5-DD5B-4471-A201-E650F87BE7C3}">
+    <comment ref="D6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -174,7 +174,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D10" authorId="0" shapeId="0" xr:uid="{291ADDBD-D414-46A9-A313-C6569F2BE713}">
+    <comment ref="D10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -198,7 +198,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C11" authorId="0" shapeId="0" xr:uid="{12B0B159-4ABD-4379-8532-CEBD0FFCA4FA}">
+    <comment ref="C11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -222,7 +222,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C13" authorId="0" shapeId="0" xr:uid="{D3755602-0F0C-4DFF-9D28-A7DF938FCC37}">
+    <comment ref="C13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -250,8 +250,42 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>jorge onofre</author>
+  </authors>
+  <commentList>
+    <comment ref="F10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>jorge onofre:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+LFechaFin</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Fecha Inicio:</t>
   </si>
@@ -300,12 +334,45 @@
   <si>
     <t>Diseño 2</t>
   </si>
+  <si>
+    <t>Actualizando Catalogo Articulos 5 de 100</t>
+  </si>
+  <si>
+    <t>Catalogo</t>
+  </si>
+  <si>
+    <t>Actualiza</t>
+  </si>
+  <si>
+    <t>Total Articulos</t>
+  </si>
+  <si>
+    <t>Total Actualizados</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Proveedores</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Faild</t>
+  </si>
+  <si>
+    <t>Cajas</t>
+  </si>
+  <si>
+    <t>Actualizar</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -349,8 +416,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -381,8 +471,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -559,11 +667,140 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -575,9 +812,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
@@ -591,12 +825,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -606,32 +870,170 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1691,6 +2093,600 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9096375" y="1400175"/>
+          <a:ext cx="161925" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-MX" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectángulo 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A79222D-B3D8-46A0-BCAE-8056839D7A5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2886075" y="2333625"/>
+          <a:ext cx="161925" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100"/>
+            <a:t>v</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectángulo 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A79222D-B3D8-46A0-BCAE-8056839D7A5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2886075" y="2562225"/>
+          <a:ext cx="161925" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100"/>
+            <a:t>v</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectángulo 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A79222D-B3D8-46A0-BCAE-8056839D7A5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2876550" y="2781300"/>
+          <a:ext cx="161925" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100"/>
+            <a:t>v</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectángulo 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A79222D-B3D8-46A0-BCAE-8056839D7A5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2876550" y="3009900"/>
+          <a:ext cx="161925" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-MX" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectángulo 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A79222D-B3D8-46A0-BCAE-8056839D7A5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2867025" y="3257550"/>
+          <a:ext cx="161925" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-MX" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectángulo 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A79222D-B3D8-46A0-BCAE-8056839D7A5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2867025" y="3476625"/>
+          <a:ext cx="161925" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-MX" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectángulo 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A79222D-B3D8-46A0-BCAE-8056839D7A5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2876550" y="3705225"/>
+          <a:ext cx="161925" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-MX" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectángulo 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A79222D-B3D8-46A0-BCAE-8056839D7A5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2867025" y="3943350"/>
+          <a:ext cx="161925" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-MX" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rectángulo 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A79222D-B3D8-46A0-BCAE-8056839D7A5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2867025" y="4162425"/>
+          <a:ext cx="161925" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-MX" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rectángulo 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A79222D-B3D8-46A0-BCAE-8056839D7A5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2867025" y="4391025"/>
           <a:ext cx="161925" cy="142875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2021,11 +3017,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{541DCD99-2F13-4853-B2A2-3DF4630566D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2047,80 +3043,80 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="J2" s="32" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="J2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="14"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="13" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="14"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="13" t="s">
+      <c r="J3" s="13"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
       <c r="G4" s="3"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
       <c r="P4" s="3"/>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="1">
         <v>43335</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="20" t="s">
+      <c r="E5" s="10"/>
+      <c r="F5" s="18" t="s">
         <v>8</v>
       </c>
       <c r="G5" s="3"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="10" t="s">
         <v>0</v>
       </c>
       <c r="L5" s="1">
         <v>43335</v>
       </c>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11" t="s">
+      <c r="M5" s="10"/>
+      <c r="N5" s="10" t="s">
         <v>1</v>
       </c>
       <c r="O5" s="1">
@@ -2130,220 +3126,227 @@
     </row>
     <row r="6" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="1">
         <v>43335</v>
       </c>
-      <c r="E6" s="11"/>
+      <c r="E6" s="10"/>
       <c r="F6" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G6" s="3"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
       <c r="P6" s="3"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
       <c r="F7" s="6" t="s">
         <v>5</v>
       </c>
       <c r="G7" s="3"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="21" t="s">
+      <c r="K7" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="23"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="32"/>
       <c r="P7" s="3"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
       <c r="F8" s="6" t="s">
         <v>6</v>
       </c>
       <c r="G8" s="3"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="27" t="s">
+      <c r="K8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="L8" s="28"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="28" t="s">
+      <c r="L8" s="22"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="O8" s="31"/>
+      <c r="O8" s="23"/>
       <c r="P8" s="3"/>
     </row>
     <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
       <c r="F9" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G9" s="3"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="27" t="s">
+      <c r="K9" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="28" t="s">
+      <c r="L9" s="22"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="O9" s="31"/>
+      <c r="O9" s="23"/>
       <c r="P9" s="3"/>
     </row>
     <row r="10" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="2"/>
-      <c r="C10" s="10"/>
+      <c r="C10" s="9"/>
       <c r="D10" s="8"/>
-      <c r="E10" s="11"/>
+      <c r="E10" s="10"/>
       <c r="F10" s="6"/>
       <c r="G10" s="3"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="27" t="s">
+      <c r="K10" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="L10" s="28"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="18"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="24"/>
       <c r="O10" s="25"/>
       <c r="P10" s="3"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="11"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="10"/>
       <c r="F11" s="6"/>
       <c r="G11" s="3"/>
       <c r="J11" s="2"/>
-      <c r="K11" s="27" t="s">
+      <c r="K11" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="L11" s="28"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="18"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="24"/>
       <c r="O11" s="25"/>
       <c r="P11" s="3"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
       <c r="F12" s="6"/>
       <c r="G12" s="3"/>
       <c r="J12" s="2"/>
-      <c r="K12" s="27" t="s">
+      <c r="K12" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="L12" s="28"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="18"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="24"/>
       <c r="O12" s="25"/>
       <c r="P12" s="3"/>
     </row>
     <row r="13" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
       <c r="F13" s="6"/>
       <c r="G13" s="3"/>
       <c r="J13" s="2"/>
-      <c r="K13" s="29" t="s">
+      <c r="K13" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="L13" s="30"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="26"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="27"/>
       <c r="P13" s="3"/>
     </row>
     <row r="14" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
       <c r="F14" s="6"/>
       <c r="G14" s="3"/>
       <c r="J14" s="2"/>
-      <c r="K14" s="19" t="s">
+      <c r="K14" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
       <c r="P14" s="3"/>
     </row>
     <row r="15" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
       <c r="F15" s="6"/>
       <c r="G15" s="3"/>
       <c r="J15" s="2"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
       <c r="O15" s="8"/>
       <c r="P15" s="3"/>
     </row>
     <row r="16" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
       <c r="F16" s="7"/>
       <c r="G16" s="3"/>
       <c r="J16" s="2"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
       <c r="P16" s="3"/>
     </row>
     <row r="17" spans="2:16" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="4"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
       <c r="G17" s="5"/>
       <c r="J17" s="4"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
       <c r="P17" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="K14:O14"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K12:L12"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="J2:P2"/>
     <mergeCell ref="K13:L13"/>
@@ -2354,16 +3357,2460 @@
     <mergeCell ref="N12:O12"/>
     <mergeCell ref="N13:O13"/>
     <mergeCell ref="C11:D11"/>
-    <mergeCell ref="K14:O14"/>
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K12:L12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D2:BD44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="BL8" sqref="BL8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="1.7109375" defaultRowHeight="9" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="4:56" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="4:56" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="34"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="35"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="35"/>
+      <c r="V3" s="35"/>
+      <c r="W3" s="35"/>
+      <c r="X3" s="35"/>
+      <c r="Y3" s="35"/>
+      <c r="Z3" s="35"/>
+      <c r="AA3" s="35"/>
+      <c r="AB3" s="35"/>
+      <c r="AC3" s="35"/>
+      <c r="AD3" s="35"/>
+      <c r="AE3" s="35"/>
+      <c r="AF3" s="35"/>
+      <c r="AG3" s="35"/>
+      <c r="AH3" s="35"/>
+      <c r="AI3" s="35"/>
+      <c r="AJ3" s="35"/>
+      <c r="AK3" s="35"/>
+      <c r="AL3" s="35"/>
+      <c r="AM3" s="35"/>
+      <c r="AN3" s="35"/>
+      <c r="AO3" s="35"/>
+      <c r="AP3" s="35"/>
+      <c r="AQ3" s="35"/>
+      <c r="AR3" s="35"/>
+      <c r="AS3" s="35"/>
+      <c r="AT3" s="35"/>
+      <c r="AU3" s="35"/>
+      <c r="AV3" s="35"/>
+      <c r="AW3" s="35"/>
+      <c r="AX3" s="35"/>
+      <c r="AY3" s="35"/>
+      <c r="AZ3" s="35"/>
+      <c r="BA3" s="35"/>
+      <c r="BB3" s="35"/>
+      <c r="BC3" s="35"/>
+      <c r="BD3" s="36"/>
+    </row>
+    <row r="4" spans="4:56" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="4"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="11"/>
+      <c r="AD4" s="11"/>
+      <c r="AE4" s="11"/>
+      <c r="AF4" s="11"/>
+      <c r="AG4" s="11"/>
+      <c r="AH4" s="11"/>
+      <c r="AI4" s="11"/>
+      <c r="AJ4" s="11"/>
+      <c r="AK4" s="11"/>
+      <c r="AL4" s="11"/>
+      <c r="AM4" s="11"/>
+      <c r="AN4" s="11"/>
+      <c r="AO4" s="11"/>
+      <c r="AP4" s="11"/>
+      <c r="AQ4" s="11"/>
+      <c r="AR4" s="11"/>
+      <c r="AS4" s="11"/>
+      <c r="AT4" s="11"/>
+      <c r="AU4" s="11"/>
+      <c r="AV4" s="11"/>
+      <c r="AW4" s="11"/>
+      <c r="AX4" s="11"/>
+      <c r="AY4" s="11"/>
+      <c r="AZ4" s="11"/>
+      <c r="BA4" s="11"/>
+      <c r="BB4" s="11"/>
+      <c r="BC4" s="11"/>
+      <c r="BD4" s="5"/>
+    </row>
+    <row r="5" spans="4:56" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="2"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="10"/>
+      <c r="AD5" s="10"/>
+      <c r="AE5" s="10"/>
+      <c r="AF5" s="10"/>
+      <c r="AG5" s="10"/>
+      <c r="AH5" s="10"/>
+      <c r="AI5" s="10"/>
+      <c r="AJ5" s="10"/>
+      <c r="AK5" s="10"/>
+      <c r="AL5" s="10"/>
+      <c r="AM5" s="10"/>
+      <c r="AN5" s="10"/>
+      <c r="AO5" s="10"/>
+      <c r="AP5" s="10"/>
+      <c r="AQ5" s="10"/>
+      <c r="AR5" s="10"/>
+      <c r="AS5" s="10"/>
+      <c r="AT5" s="10"/>
+      <c r="AU5" s="10"/>
+      <c r="AV5" s="10"/>
+      <c r="AW5" s="10"/>
+      <c r="AX5" s="10"/>
+      <c r="AY5" s="10"/>
+      <c r="AZ5" s="10"/>
+      <c r="BA5" s="10"/>
+      <c r="BB5" s="10"/>
+      <c r="BC5" s="10"/>
+      <c r="BD5" s="3"/>
+    </row>
+    <row r="6" spans="4:56" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="2"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="10"/>
+      <c r="AE6" s="10"/>
+      <c r="AF6" s="10"/>
+      <c r="AG6" s="10"/>
+      <c r="AH6" s="10"/>
+      <c r="AI6" s="10"/>
+      <c r="AJ6" s="10"/>
+      <c r="AK6" s="10"/>
+      <c r="AL6" s="10"/>
+      <c r="AM6" s="10"/>
+      <c r="AN6" s="10"/>
+      <c r="AO6" s="10"/>
+      <c r="AP6" s="10"/>
+      <c r="AQ6" s="10"/>
+      <c r="AR6" s="10"/>
+      <c r="AS6" s="10"/>
+      <c r="AT6" s="10"/>
+      <c r="AU6" s="10"/>
+      <c r="AV6" s="10"/>
+      <c r="AW6" s="10"/>
+      <c r="AX6" s="10"/>
+      <c r="AY6" s="10"/>
+      <c r="AZ6" s="10"/>
+      <c r="BA6" s="10"/>
+      <c r="BB6" s="10"/>
+      <c r="BC6" s="10"/>
+      <c r="BD6" s="3"/>
+    </row>
+    <row r="7" spans="4:56" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="2"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="74">
+        <v>43320</v>
+      </c>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="28"/>
+      <c r="U7" s="28"/>
+      <c r="V7" s="28"/>
+      <c r="W7" s="28"/>
+      <c r="X7" s="28"/>
+      <c r="Y7" s="41"/>
+      <c r="Z7" s="40"/>
+      <c r="AA7" s="41"/>
+      <c r="AB7" s="10"/>
+      <c r="AC7" s="10"/>
+      <c r="AD7" s="10"/>
+      <c r="AE7" s="10"/>
+      <c r="AF7" s="10"/>
+      <c r="AG7" s="10"/>
+      <c r="AH7" s="10"/>
+      <c r="AI7" s="10"/>
+      <c r="AJ7" s="10"/>
+      <c r="AK7" s="10"/>
+      <c r="AL7" s="10"/>
+      <c r="AM7" s="10"/>
+      <c r="AN7" s="10"/>
+      <c r="AO7" s="10"/>
+      <c r="AP7" s="10"/>
+      <c r="AQ7" s="10"/>
+      <c r="AR7" s="10"/>
+      <c r="AS7" s="10"/>
+      <c r="AT7" s="10"/>
+      <c r="AU7" s="10"/>
+      <c r="AV7" s="10"/>
+      <c r="AW7" s="10"/>
+      <c r="AX7" s="10"/>
+      <c r="AY7" s="10"/>
+      <c r="AZ7" s="10"/>
+      <c r="BA7" s="10"/>
+      <c r="BB7" s="10"/>
+      <c r="BC7" s="10"/>
+      <c r="BD7" s="3"/>
+    </row>
+    <row r="8" spans="4:56" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="2"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="27"/>
+      <c r="Z8" s="42"/>
+      <c r="AA8" s="27"/>
+      <c r="AB8" s="10"/>
+      <c r="AC8" s="10"/>
+      <c r="AD8" s="10"/>
+      <c r="AE8" s="10"/>
+      <c r="AF8" s="81" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG8" s="82"/>
+      <c r="AH8" s="82"/>
+      <c r="AI8" s="82"/>
+      <c r="AJ8" s="82"/>
+      <c r="AK8" s="82"/>
+      <c r="AL8" s="82"/>
+      <c r="AM8" s="82"/>
+      <c r="AN8" s="82"/>
+      <c r="AO8" s="82"/>
+      <c r="AP8" s="82"/>
+      <c r="AQ8" s="82"/>
+      <c r="AR8" s="83"/>
+      <c r="AS8" s="10"/>
+      <c r="AT8" s="10"/>
+      <c r="AU8" s="10"/>
+      <c r="AV8" s="10"/>
+      <c r="AW8" s="10"/>
+      <c r="AX8" s="10"/>
+      <c r="AY8" s="10"/>
+      <c r="AZ8" s="10"/>
+      <c r="BA8" s="10"/>
+      <c r="BB8" s="10"/>
+      <c r="BC8" s="10"/>
+      <c r="BD8" s="3"/>
+    </row>
+    <row r="9" spans="4:56" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="2"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="17"/>
+      <c r="W9" s="17"/>
+      <c r="X9" s="17"/>
+      <c r="Y9" s="17"/>
+      <c r="Z9" s="17"/>
+      <c r="AA9" s="17"/>
+      <c r="AB9" s="10"/>
+      <c r="AC9" s="10"/>
+      <c r="AD9" s="10"/>
+      <c r="AE9" s="10"/>
+      <c r="AF9" s="84"/>
+      <c r="AG9" s="85"/>
+      <c r="AH9" s="85"/>
+      <c r="AI9" s="85"/>
+      <c r="AJ9" s="85"/>
+      <c r="AK9" s="85"/>
+      <c r="AL9" s="85"/>
+      <c r="AM9" s="85"/>
+      <c r="AN9" s="85"/>
+      <c r="AO9" s="85"/>
+      <c r="AP9" s="85"/>
+      <c r="AQ9" s="85"/>
+      <c r="AR9" s="86"/>
+      <c r="AS9" s="10"/>
+      <c r="AT9" s="10"/>
+      <c r="AU9" s="10"/>
+      <c r="AV9" s="10"/>
+      <c r="AW9" s="10"/>
+      <c r="AX9" s="10"/>
+      <c r="AY9" s="10"/>
+      <c r="AZ9" s="10"/>
+      <c r="BA9" s="10"/>
+      <c r="BB9" s="10"/>
+      <c r="BC9" s="10"/>
+      <c r="BD9" s="3"/>
+    </row>
+    <row r="10" spans="4:56" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="2"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="74">
+        <v>43335</v>
+      </c>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="28"/>
+      <c r="T10" s="28"/>
+      <c r="U10" s="28"/>
+      <c r="V10" s="28"/>
+      <c r="W10" s="28"/>
+      <c r="X10" s="28"/>
+      <c r="Y10" s="41"/>
+      <c r="Z10" s="40"/>
+      <c r="AA10" s="41"/>
+      <c r="AB10" s="10"/>
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="10"/>
+      <c r="AE10" s="10"/>
+      <c r="AF10" s="87"/>
+      <c r="AG10" s="88"/>
+      <c r="AH10" s="88"/>
+      <c r="AI10" s="88"/>
+      <c r="AJ10" s="88"/>
+      <c r="AK10" s="88"/>
+      <c r="AL10" s="88"/>
+      <c r="AM10" s="88"/>
+      <c r="AN10" s="88"/>
+      <c r="AO10" s="88"/>
+      <c r="AP10" s="88"/>
+      <c r="AQ10" s="88"/>
+      <c r="AR10" s="89"/>
+      <c r="AS10" s="10"/>
+      <c r="AT10" s="10"/>
+      <c r="AU10" s="10"/>
+      <c r="AV10" s="10"/>
+      <c r="AW10" s="10"/>
+      <c r="AX10" s="10"/>
+      <c r="AY10" s="10"/>
+      <c r="AZ10" s="10"/>
+      <c r="BA10" s="10"/>
+      <c r="BB10" s="10"/>
+      <c r="BC10" s="10"/>
+      <c r="BD10" s="3"/>
+    </row>
+    <row r="11" spans="4:56" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="2"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="26"/>
+      <c r="W11" s="26"/>
+      <c r="X11" s="26"/>
+      <c r="Y11" s="27"/>
+      <c r="Z11" s="42"/>
+      <c r="AA11" s="27"/>
+      <c r="AB11" s="10"/>
+      <c r="AC11" s="10"/>
+      <c r="AD11" s="10"/>
+      <c r="AE11" s="10"/>
+      <c r="AF11" s="10"/>
+      <c r="AG11" s="10"/>
+      <c r="AH11" s="10"/>
+      <c r="AI11" s="10"/>
+      <c r="AJ11" s="10"/>
+      <c r="AK11" s="10"/>
+      <c r="AL11" s="10"/>
+      <c r="AM11" s="10"/>
+      <c r="AN11" s="10"/>
+      <c r="AO11" s="10"/>
+      <c r="AP11" s="10"/>
+      <c r="AQ11" s="10"/>
+      <c r="AR11" s="10"/>
+      <c r="AS11" s="10"/>
+      <c r="AT11" s="10"/>
+      <c r="AU11" s="10"/>
+      <c r="AV11" s="10"/>
+      <c r="AW11" s="10"/>
+      <c r="AX11" s="10"/>
+      <c r="AY11" s="10"/>
+      <c r="AZ11" s="10"/>
+      <c r="BA11" s="10"/>
+      <c r="BB11" s="10"/>
+      <c r="BC11" s="10"/>
+      <c r="BD11" s="3"/>
+    </row>
+    <row r="12" spans="4:56" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="2"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="10"/>
+      <c r="Z12" s="10"/>
+      <c r="AA12" s="10"/>
+      <c r="AB12" s="10"/>
+      <c r="AC12" s="10"/>
+      <c r="AD12" s="10"/>
+      <c r="AE12" s="10"/>
+      <c r="AF12" s="10"/>
+      <c r="AG12" s="10"/>
+      <c r="AH12" s="10"/>
+      <c r="AI12" s="10"/>
+      <c r="AJ12" s="10"/>
+      <c r="AK12" s="10"/>
+      <c r="AL12" s="10"/>
+      <c r="AM12" s="10"/>
+      <c r="AN12" s="10"/>
+      <c r="AO12" s="10"/>
+      <c r="AP12" s="10"/>
+      <c r="AQ12" s="10"/>
+      <c r="AR12" s="10"/>
+      <c r="AS12" s="10"/>
+      <c r="AT12" s="10"/>
+      <c r="AU12" s="10"/>
+      <c r="AV12" s="10"/>
+      <c r="AW12" s="10"/>
+      <c r="AX12" s="10"/>
+      <c r="AY12" s="10"/>
+      <c r="AZ12" s="10"/>
+      <c r="BA12" s="10"/>
+      <c r="BB12" s="10"/>
+      <c r="BC12" s="10"/>
+      <c r="BD12" s="3"/>
+    </row>
+    <row r="13" spans="4:56" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="2"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="48"/>
+      <c r="O13" s="48"/>
+      <c r="P13" s="48"/>
+      <c r="Q13" s="48"/>
+      <c r="R13" s="48"/>
+      <c r="S13" s="48"/>
+      <c r="T13" s="48"/>
+      <c r="U13" s="48"/>
+      <c r="V13" s="48"/>
+      <c r="W13" s="48"/>
+      <c r="X13" s="48"/>
+      <c r="Y13" s="48"/>
+      <c r="Z13" s="48"/>
+      <c r="AA13" s="48"/>
+      <c r="AB13" s="48"/>
+      <c r="AC13" s="48"/>
+      <c r="AD13" s="43"/>
+      <c r="AE13" s="43"/>
+      <c r="AF13" s="43"/>
+      <c r="AG13" s="43"/>
+      <c r="AH13" s="43"/>
+      <c r="AI13" s="43"/>
+      <c r="AJ13" s="43"/>
+      <c r="AK13" s="43"/>
+      <c r="AL13" s="43"/>
+      <c r="AM13" s="43"/>
+      <c r="AN13" s="43"/>
+      <c r="AO13" s="43"/>
+      <c r="AP13" s="43"/>
+      <c r="AQ13" s="43"/>
+      <c r="AR13" s="43"/>
+      <c r="AS13" s="43"/>
+      <c r="AT13" s="43"/>
+      <c r="AU13" s="43"/>
+      <c r="AV13" s="43"/>
+      <c r="AW13" s="43"/>
+      <c r="AX13" s="43"/>
+      <c r="AY13" s="43"/>
+      <c r="AZ13" s="43"/>
+      <c r="BA13" s="43"/>
+      <c r="BB13" s="44"/>
+      <c r="BC13" s="10"/>
+      <c r="BD13" s="3"/>
+    </row>
+    <row r="14" spans="4:56" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="2"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="50"/>
+      <c r="Q14" s="50"/>
+      <c r="R14" s="50"/>
+      <c r="S14" s="50"/>
+      <c r="T14" s="50"/>
+      <c r="U14" s="50"/>
+      <c r="V14" s="50"/>
+      <c r="W14" s="50"/>
+      <c r="X14" s="50"/>
+      <c r="Y14" s="50"/>
+      <c r="Z14" s="50"/>
+      <c r="AA14" s="50"/>
+      <c r="AB14" s="50"/>
+      <c r="AC14" s="50"/>
+      <c r="AD14" s="45"/>
+      <c r="AE14" s="45"/>
+      <c r="AF14" s="45"/>
+      <c r="AG14" s="45"/>
+      <c r="AH14" s="45"/>
+      <c r="AI14" s="45"/>
+      <c r="AJ14" s="45"/>
+      <c r="AK14" s="45"/>
+      <c r="AL14" s="45"/>
+      <c r="AM14" s="45"/>
+      <c r="AN14" s="45"/>
+      <c r="AO14" s="45"/>
+      <c r="AP14" s="45"/>
+      <c r="AQ14" s="45"/>
+      <c r="AR14" s="45"/>
+      <c r="AS14" s="45"/>
+      <c r="AT14" s="45"/>
+      <c r="AU14" s="45"/>
+      <c r="AV14" s="45"/>
+      <c r="AW14" s="45"/>
+      <c r="AX14" s="45"/>
+      <c r="AY14" s="45"/>
+      <c r="AZ14" s="45"/>
+      <c r="BA14" s="45"/>
+      <c r="BB14" s="46"/>
+      <c r="BC14" s="10"/>
+      <c r="BD14" s="3"/>
+    </row>
+    <row r="15" spans="4:56" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="2"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="10"/>
+      <c r="AA15" s="10"/>
+      <c r="AB15" s="10"/>
+      <c r="AC15" s="10"/>
+      <c r="AD15" s="10"/>
+      <c r="AE15" s="10"/>
+      <c r="AF15" s="10"/>
+      <c r="AG15" s="10"/>
+      <c r="AH15" s="10"/>
+      <c r="AI15" s="10"/>
+      <c r="AJ15" s="10"/>
+      <c r="AK15" s="10"/>
+      <c r="AL15" s="10"/>
+      <c r="AM15" s="10"/>
+      <c r="AN15" s="10"/>
+      <c r="AO15" s="10"/>
+      <c r="AP15" s="10"/>
+      <c r="AQ15" s="10"/>
+      <c r="AR15" s="10"/>
+      <c r="AS15" s="10"/>
+      <c r="AT15" s="10"/>
+      <c r="AU15" s="10"/>
+      <c r="AV15" s="10"/>
+      <c r="AW15" s="10"/>
+      <c r="AX15" s="10"/>
+      <c r="AY15" s="10"/>
+      <c r="AZ15" s="10"/>
+      <c r="BA15" s="10"/>
+      <c r="BB15" s="10"/>
+      <c r="BC15" s="10"/>
+      <c r="BD15" s="3"/>
+    </row>
+    <row r="16" spans="4:56" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="2"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="37"/>
+      <c r="R16" s="37"/>
+      <c r="S16" s="37"/>
+      <c r="T16" s="37"/>
+      <c r="U16" s="37"/>
+      <c r="V16" s="37"/>
+      <c r="W16" s="37"/>
+      <c r="X16" s="37"/>
+      <c r="Y16" s="37"/>
+      <c r="Z16" s="37"/>
+      <c r="AA16" s="37"/>
+      <c r="AB16" s="37"/>
+      <c r="AC16" s="37"/>
+      <c r="AD16" s="37"/>
+      <c r="AE16" s="37"/>
+      <c r="AF16" s="37"/>
+      <c r="AG16" s="37"/>
+      <c r="AH16" s="37"/>
+      <c r="AI16" s="37"/>
+      <c r="AJ16" s="37"/>
+      <c r="AK16" s="37"/>
+      <c r="AL16" s="37"/>
+      <c r="AM16" s="37"/>
+      <c r="AN16" s="37"/>
+      <c r="AO16" s="37"/>
+      <c r="AP16" s="37"/>
+      <c r="AQ16" s="37"/>
+      <c r="AR16" s="37"/>
+      <c r="AS16" s="37"/>
+      <c r="AT16" s="37"/>
+      <c r="AU16" s="37"/>
+      <c r="AV16" s="37"/>
+      <c r="AW16" s="37"/>
+      <c r="AX16" s="37"/>
+      <c r="AY16" s="37"/>
+      <c r="AZ16" s="37"/>
+      <c r="BA16" s="37"/>
+      <c r="BB16" s="37"/>
+      <c r="BC16" s="10"/>
+      <c r="BD16" s="3"/>
+    </row>
+    <row r="17" spans="4:56" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D17" s="2"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="37"/>
+      <c r="R17" s="37"/>
+      <c r="S17" s="37"/>
+      <c r="T17" s="37"/>
+      <c r="U17" s="37"/>
+      <c r="V17" s="37"/>
+      <c r="W17" s="37"/>
+      <c r="X17" s="37"/>
+      <c r="Y17" s="37"/>
+      <c r="Z17" s="37"/>
+      <c r="AA17" s="37"/>
+      <c r="AB17" s="37"/>
+      <c r="AC17" s="37"/>
+      <c r="AD17" s="37"/>
+      <c r="AE17" s="37"/>
+      <c r="AF17" s="37"/>
+      <c r="AG17" s="37"/>
+      <c r="AH17" s="37"/>
+      <c r="AI17" s="37"/>
+      <c r="AJ17" s="37"/>
+      <c r="AK17" s="37"/>
+      <c r="AL17" s="37"/>
+      <c r="AM17" s="37"/>
+      <c r="AN17" s="37"/>
+      <c r="AO17" s="37"/>
+      <c r="AP17" s="37"/>
+      <c r="AQ17" s="37"/>
+      <c r="AR17" s="37"/>
+      <c r="AS17" s="37"/>
+      <c r="AT17" s="37"/>
+      <c r="AU17" s="37"/>
+      <c r="AV17" s="37"/>
+      <c r="AW17" s="37"/>
+      <c r="AX17" s="37"/>
+      <c r="AY17" s="37"/>
+      <c r="AZ17" s="37"/>
+      <c r="BA17" s="37"/>
+      <c r="BB17" s="37"/>
+      <c r="BC17" s="10"/>
+      <c r="BD17" s="3"/>
+    </row>
+    <row r="18" spans="4:56" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="2"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="10"/>
+      <c r="Z18" s="10"/>
+      <c r="AA18" s="10"/>
+      <c r="AB18" s="10"/>
+      <c r="AC18" s="10"/>
+      <c r="AD18" s="10"/>
+      <c r="AE18" s="10"/>
+      <c r="AF18" s="10"/>
+      <c r="AG18" s="10"/>
+      <c r="AH18" s="10"/>
+      <c r="AI18" s="10"/>
+      <c r="AJ18" s="10"/>
+      <c r="AK18" s="10"/>
+      <c r="AL18" s="10"/>
+      <c r="AM18" s="10"/>
+      <c r="AN18" s="10"/>
+      <c r="AO18" s="10"/>
+      <c r="AP18" s="10"/>
+      <c r="AQ18" s="10"/>
+      <c r="AR18" s="10"/>
+      <c r="AS18" s="10"/>
+      <c r="AT18" s="10"/>
+      <c r="AU18" s="10"/>
+      <c r="AV18" s="10"/>
+      <c r="AW18" s="10"/>
+      <c r="AX18" s="10"/>
+      <c r="AY18" s="10"/>
+      <c r="AZ18" s="10"/>
+      <c r="BA18" s="10"/>
+      <c r="BB18" s="10"/>
+      <c r="BC18" s="10"/>
+      <c r="BD18" s="3"/>
+    </row>
+    <row r="19" spans="4:56" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D19" s="2"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="51"/>
+      <c r="N19" s="51"/>
+      <c r="O19" s="51"/>
+      <c r="P19" s="51"/>
+      <c r="Q19" s="51"/>
+      <c r="R19" s="51"/>
+      <c r="S19" s="51"/>
+      <c r="T19" s="51"/>
+      <c r="U19" s="51"/>
+      <c r="V19" s="51"/>
+      <c r="W19" s="71"/>
+      <c r="X19" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y19" s="53"/>
+      <c r="Z19" s="53"/>
+      <c r="AA19" s="53"/>
+      <c r="AB19" s="53"/>
+      <c r="AC19" s="55"/>
+      <c r="AD19" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE19" s="51"/>
+      <c r="AF19" s="51"/>
+      <c r="AG19" s="51"/>
+      <c r="AH19" s="51"/>
+      <c r="AI19" s="51"/>
+      <c r="AJ19" s="51"/>
+      <c r="AK19" s="51"/>
+      <c r="AL19" s="71"/>
+      <c r="AM19" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="AN19" s="51"/>
+      <c r="AO19" s="51"/>
+      <c r="AP19" s="51"/>
+      <c r="AQ19" s="51"/>
+      <c r="AR19" s="51"/>
+      <c r="AS19" s="51"/>
+      <c r="AT19" s="51"/>
+      <c r="AU19" s="71"/>
+      <c r="AV19" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="AW19" s="53"/>
+      <c r="AX19" s="53"/>
+      <c r="AY19" s="53"/>
+      <c r="AZ19" s="53"/>
+      <c r="BA19" s="53"/>
+      <c r="BB19" s="55"/>
+      <c r="BC19" s="10"/>
+      <c r="BD19" s="3"/>
+    </row>
+    <row r="20" spans="4:56" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="2"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="57"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="57"/>
+      <c r="P20" s="57"/>
+      <c r="Q20" s="57"/>
+      <c r="R20" s="57"/>
+      <c r="S20" s="57"/>
+      <c r="T20" s="57"/>
+      <c r="U20" s="57"/>
+      <c r="V20" s="57"/>
+      <c r="W20" s="72"/>
+      <c r="X20" s="73"/>
+      <c r="Y20" s="58"/>
+      <c r="Z20" s="58"/>
+      <c r="AA20" s="58"/>
+      <c r="AB20" s="58"/>
+      <c r="AC20" s="59"/>
+      <c r="AD20" s="56"/>
+      <c r="AE20" s="57"/>
+      <c r="AF20" s="57"/>
+      <c r="AG20" s="57"/>
+      <c r="AH20" s="57"/>
+      <c r="AI20" s="57"/>
+      <c r="AJ20" s="57"/>
+      <c r="AK20" s="57"/>
+      <c r="AL20" s="72"/>
+      <c r="AM20" s="56"/>
+      <c r="AN20" s="57"/>
+      <c r="AO20" s="57"/>
+      <c r="AP20" s="57"/>
+      <c r="AQ20" s="57"/>
+      <c r="AR20" s="57"/>
+      <c r="AS20" s="57"/>
+      <c r="AT20" s="57"/>
+      <c r="AU20" s="72"/>
+      <c r="AV20" s="73"/>
+      <c r="AW20" s="58"/>
+      <c r="AX20" s="58"/>
+      <c r="AY20" s="58"/>
+      <c r="AZ20" s="58"/>
+      <c r="BA20" s="58"/>
+      <c r="BB20" s="59"/>
+      <c r="BC20" s="10"/>
+      <c r="BD20" s="3"/>
+    </row>
+    <row r="21" spans="4:56" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="2"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="62"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="62"/>
+      <c r="L21" s="62"/>
+      <c r="M21" s="62"/>
+      <c r="N21" s="62"/>
+      <c r="O21" s="62"/>
+      <c r="P21" s="62"/>
+      <c r="Q21" s="62"/>
+      <c r="R21" s="62"/>
+      <c r="S21" s="62"/>
+      <c r="T21" s="62"/>
+      <c r="U21" s="62"/>
+      <c r="V21" s="62"/>
+      <c r="W21" s="62"/>
+      <c r="X21" s="63"/>
+      <c r="Y21" s="63"/>
+      <c r="Z21" s="63"/>
+      <c r="AA21" s="63"/>
+      <c r="AB21" s="63"/>
+      <c r="AC21" s="63"/>
+      <c r="AD21" s="62">
+        <v>100</v>
+      </c>
+      <c r="AE21" s="62"/>
+      <c r="AF21" s="62"/>
+      <c r="AG21" s="62"/>
+      <c r="AH21" s="62"/>
+      <c r="AI21" s="62"/>
+      <c r="AJ21" s="62"/>
+      <c r="AK21" s="62"/>
+      <c r="AL21" s="62"/>
+      <c r="AM21" s="62">
+        <v>100</v>
+      </c>
+      <c r="AN21" s="62"/>
+      <c r="AO21" s="62"/>
+      <c r="AP21" s="62"/>
+      <c r="AQ21" s="62"/>
+      <c r="AR21" s="62"/>
+      <c r="AS21" s="62"/>
+      <c r="AT21" s="62"/>
+      <c r="AU21" s="62"/>
+      <c r="AV21" s="75" t="s">
+        <v>23</v>
+      </c>
+      <c r="AW21" s="75"/>
+      <c r="AX21" s="75"/>
+      <c r="AY21" s="75"/>
+      <c r="AZ21" s="75"/>
+      <c r="BA21" s="75"/>
+      <c r="BB21" s="76"/>
+      <c r="BC21" s="10"/>
+      <c r="BD21" s="3"/>
+    </row>
+    <row r="22" spans="4:56" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="2"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="60"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="60"/>
+      <c r="M22" s="60"/>
+      <c r="N22" s="60"/>
+      <c r="O22" s="60"/>
+      <c r="P22" s="60"/>
+      <c r="Q22" s="60"/>
+      <c r="R22" s="60"/>
+      <c r="S22" s="60"/>
+      <c r="T22" s="60"/>
+      <c r="U22" s="60"/>
+      <c r="V22" s="60"/>
+      <c r="W22" s="60"/>
+      <c r="X22" s="61"/>
+      <c r="Y22" s="61"/>
+      <c r="Z22" s="61"/>
+      <c r="AA22" s="61"/>
+      <c r="AB22" s="61"/>
+      <c r="AC22" s="61"/>
+      <c r="AD22" s="60"/>
+      <c r="AE22" s="60"/>
+      <c r="AF22" s="60"/>
+      <c r="AG22" s="60"/>
+      <c r="AH22" s="60"/>
+      <c r="AI22" s="60"/>
+      <c r="AJ22" s="60"/>
+      <c r="AK22" s="60"/>
+      <c r="AL22" s="60"/>
+      <c r="AM22" s="60"/>
+      <c r="AN22" s="60"/>
+      <c r="AO22" s="60"/>
+      <c r="AP22" s="60"/>
+      <c r="AQ22" s="60"/>
+      <c r="AR22" s="60"/>
+      <c r="AS22" s="60"/>
+      <c r="AT22" s="60"/>
+      <c r="AU22" s="60"/>
+      <c r="AV22" s="77"/>
+      <c r="AW22" s="77"/>
+      <c r="AX22" s="77"/>
+      <c r="AY22" s="77"/>
+      <c r="AZ22" s="77"/>
+      <c r="BA22" s="77"/>
+      <c r="BB22" s="78"/>
+      <c r="BC22" s="10"/>
+      <c r="BD22" s="3"/>
+    </row>
+    <row r="23" spans="4:56" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="2"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="60"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="60"/>
+      <c r="L23" s="60"/>
+      <c r="M23" s="60"/>
+      <c r="N23" s="60"/>
+      <c r="O23" s="60"/>
+      <c r="P23" s="60"/>
+      <c r="Q23" s="60"/>
+      <c r="R23" s="60"/>
+      <c r="S23" s="60"/>
+      <c r="T23" s="60"/>
+      <c r="U23" s="60"/>
+      <c r="V23" s="60"/>
+      <c r="W23" s="60"/>
+      <c r="X23" s="61"/>
+      <c r="Y23" s="61"/>
+      <c r="Z23" s="61"/>
+      <c r="AA23" s="61"/>
+      <c r="AB23" s="61"/>
+      <c r="AC23" s="61"/>
+      <c r="AD23" s="60">
+        <v>50</v>
+      </c>
+      <c r="AE23" s="60"/>
+      <c r="AF23" s="60"/>
+      <c r="AG23" s="60"/>
+      <c r="AH23" s="60"/>
+      <c r="AI23" s="60"/>
+      <c r="AJ23" s="60"/>
+      <c r="AK23" s="60"/>
+      <c r="AL23" s="60"/>
+      <c r="AM23" s="60">
+        <v>30</v>
+      </c>
+      <c r="AN23" s="60"/>
+      <c r="AO23" s="60"/>
+      <c r="AP23" s="60"/>
+      <c r="AQ23" s="60"/>
+      <c r="AR23" s="60"/>
+      <c r="AS23" s="60"/>
+      <c r="AT23" s="60"/>
+      <c r="AU23" s="60"/>
+      <c r="AV23" s="79" t="s">
+        <v>24</v>
+      </c>
+      <c r="AW23" s="79"/>
+      <c r="AX23" s="79"/>
+      <c r="AY23" s="79"/>
+      <c r="AZ23" s="79"/>
+      <c r="BA23" s="79"/>
+      <c r="BB23" s="80"/>
+      <c r="BC23" s="10"/>
+      <c r="BD23" s="3"/>
+    </row>
+    <row r="24" spans="4:56" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D24" s="2"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="60"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="60"/>
+      <c r="K24" s="60"/>
+      <c r="L24" s="60"/>
+      <c r="M24" s="60"/>
+      <c r="N24" s="60"/>
+      <c r="O24" s="60"/>
+      <c r="P24" s="60"/>
+      <c r="Q24" s="60"/>
+      <c r="R24" s="60"/>
+      <c r="S24" s="60"/>
+      <c r="T24" s="60"/>
+      <c r="U24" s="60"/>
+      <c r="V24" s="60"/>
+      <c r="W24" s="60"/>
+      <c r="X24" s="61"/>
+      <c r="Y24" s="61"/>
+      <c r="Z24" s="61"/>
+      <c r="AA24" s="61"/>
+      <c r="AB24" s="61"/>
+      <c r="AC24" s="61"/>
+      <c r="AD24" s="60"/>
+      <c r="AE24" s="60"/>
+      <c r="AF24" s="60"/>
+      <c r="AG24" s="60"/>
+      <c r="AH24" s="60"/>
+      <c r="AI24" s="60"/>
+      <c r="AJ24" s="60"/>
+      <c r="AK24" s="60"/>
+      <c r="AL24" s="60"/>
+      <c r="AM24" s="60"/>
+      <c r="AN24" s="60"/>
+      <c r="AO24" s="60"/>
+      <c r="AP24" s="60"/>
+      <c r="AQ24" s="60"/>
+      <c r="AR24" s="60"/>
+      <c r="AS24" s="60"/>
+      <c r="AT24" s="60"/>
+      <c r="AU24" s="60"/>
+      <c r="AV24" s="79"/>
+      <c r="AW24" s="79"/>
+      <c r="AX24" s="79"/>
+      <c r="AY24" s="79"/>
+      <c r="AZ24" s="79"/>
+      <c r="BA24" s="79"/>
+      <c r="BB24" s="80"/>
+      <c r="BC24" s="10"/>
+      <c r="BD24" s="3"/>
+    </row>
+    <row r="25" spans="4:56" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="2"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="60"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="60"/>
+      <c r="K25" s="60"/>
+      <c r="L25" s="60"/>
+      <c r="M25" s="60"/>
+      <c r="N25" s="60"/>
+      <c r="O25" s="60"/>
+      <c r="P25" s="60"/>
+      <c r="Q25" s="60"/>
+      <c r="R25" s="60"/>
+      <c r="S25" s="60"/>
+      <c r="T25" s="60"/>
+      <c r="U25" s="60"/>
+      <c r="V25" s="60"/>
+      <c r="W25" s="60"/>
+      <c r="X25" s="61"/>
+      <c r="Y25" s="61"/>
+      <c r="Z25" s="61"/>
+      <c r="AA25" s="61"/>
+      <c r="AB25" s="61"/>
+      <c r="AC25" s="61"/>
+      <c r="AD25" s="60">
+        <v>20</v>
+      </c>
+      <c r="AE25" s="60"/>
+      <c r="AF25" s="60"/>
+      <c r="AG25" s="60"/>
+      <c r="AH25" s="60"/>
+      <c r="AI25" s="60"/>
+      <c r="AJ25" s="60"/>
+      <c r="AK25" s="60"/>
+      <c r="AL25" s="60"/>
+      <c r="AM25" s="60">
+        <v>20</v>
+      </c>
+      <c r="AN25" s="60"/>
+      <c r="AO25" s="60"/>
+      <c r="AP25" s="60"/>
+      <c r="AQ25" s="60"/>
+      <c r="AR25" s="60"/>
+      <c r="AS25" s="60"/>
+      <c r="AT25" s="60"/>
+      <c r="AU25" s="60"/>
+      <c r="AV25" s="75" t="s">
+        <v>23</v>
+      </c>
+      <c r="AW25" s="75"/>
+      <c r="AX25" s="75"/>
+      <c r="AY25" s="75"/>
+      <c r="AZ25" s="75"/>
+      <c r="BA25" s="75"/>
+      <c r="BB25" s="76"/>
+      <c r="BC25" s="10"/>
+      <c r="BD25" s="3"/>
+    </row>
+    <row r="26" spans="4:56" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D26" s="2"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="60"/>
+      <c r="K26" s="60"/>
+      <c r="L26" s="60"/>
+      <c r="M26" s="60"/>
+      <c r="N26" s="60"/>
+      <c r="O26" s="60"/>
+      <c r="P26" s="60"/>
+      <c r="Q26" s="60"/>
+      <c r="R26" s="60"/>
+      <c r="S26" s="60"/>
+      <c r="T26" s="60"/>
+      <c r="U26" s="60"/>
+      <c r="V26" s="60"/>
+      <c r="W26" s="60"/>
+      <c r="X26" s="61"/>
+      <c r="Y26" s="61"/>
+      <c r="Z26" s="61"/>
+      <c r="AA26" s="61"/>
+      <c r="AB26" s="61"/>
+      <c r="AC26" s="61"/>
+      <c r="AD26" s="60"/>
+      <c r="AE26" s="60"/>
+      <c r="AF26" s="60"/>
+      <c r="AG26" s="60"/>
+      <c r="AH26" s="60"/>
+      <c r="AI26" s="60"/>
+      <c r="AJ26" s="60"/>
+      <c r="AK26" s="60"/>
+      <c r="AL26" s="60"/>
+      <c r="AM26" s="60"/>
+      <c r="AN26" s="60"/>
+      <c r="AO26" s="60"/>
+      <c r="AP26" s="60"/>
+      <c r="AQ26" s="60"/>
+      <c r="AR26" s="60"/>
+      <c r="AS26" s="60"/>
+      <c r="AT26" s="60"/>
+      <c r="AU26" s="60"/>
+      <c r="AV26" s="77"/>
+      <c r="AW26" s="77"/>
+      <c r="AX26" s="77"/>
+      <c r="AY26" s="77"/>
+      <c r="AZ26" s="77"/>
+      <c r="BA26" s="77"/>
+      <c r="BB26" s="78"/>
+      <c r="BC26" s="10"/>
+      <c r="BD26" s="3"/>
+    </row>
+    <row r="27" spans="4:56" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D27" s="2"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" s="60"/>
+      <c r="H27" s="60"/>
+      <c r="I27" s="60"/>
+      <c r="J27" s="60"/>
+      <c r="K27" s="60"/>
+      <c r="L27" s="60"/>
+      <c r="M27" s="60"/>
+      <c r="N27" s="60"/>
+      <c r="O27" s="60"/>
+      <c r="P27" s="60"/>
+      <c r="Q27" s="60"/>
+      <c r="R27" s="60"/>
+      <c r="S27" s="60"/>
+      <c r="T27" s="60"/>
+      <c r="U27" s="60"/>
+      <c r="V27" s="60"/>
+      <c r="W27" s="60"/>
+      <c r="X27" s="61"/>
+      <c r="Y27" s="61"/>
+      <c r="Z27" s="61"/>
+      <c r="AA27" s="61"/>
+      <c r="AB27" s="61"/>
+      <c r="AC27" s="61"/>
+      <c r="AD27" s="60">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="60"/>
+      <c r="AF27" s="60"/>
+      <c r="AG27" s="60"/>
+      <c r="AH27" s="60"/>
+      <c r="AI27" s="60"/>
+      <c r="AJ27" s="60"/>
+      <c r="AK27" s="60"/>
+      <c r="AL27" s="60"/>
+      <c r="AM27" s="60">
+        <v>0</v>
+      </c>
+      <c r="AN27" s="60"/>
+      <c r="AO27" s="60"/>
+      <c r="AP27" s="60"/>
+      <c r="AQ27" s="60"/>
+      <c r="AR27" s="60"/>
+      <c r="AS27" s="60"/>
+      <c r="AT27" s="60"/>
+      <c r="AU27" s="60"/>
+      <c r="AV27" s="61"/>
+      <c r="AW27" s="61"/>
+      <c r="AX27" s="61"/>
+      <c r="AY27" s="61"/>
+      <c r="AZ27" s="61"/>
+      <c r="BA27" s="61"/>
+      <c r="BB27" s="66"/>
+      <c r="BC27" s="10"/>
+      <c r="BD27" s="3"/>
+    </row>
+    <row r="28" spans="4:56" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D28" s="2"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="60"/>
+      <c r="I28" s="60"/>
+      <c r="J28" s="60"/>
+      <c r="K28" s="60"/>
+      <c r="L28" s="60"/>
+      <c r="M28" s="60"/>
+      <c r="N28" s="60"/>
+      <c r="O28" s="60"/>
+      <c r="P28" s="60"/>
+      <c r="Q28" s="60"/>
+      <c r="R28" s="60"/>
+      <c r="S28" s="60"/>
+      <c r="T28" s="60"/>
+      <c r="U28" s="60"/>
+      <c r="V28" s="60"/>
+      <c r="W28" s="60"/>
+      <c r="X28" s="61"/>
+      <c r="Y28" s="61"/>
+      <c r="Z28" s="61"/>
+      <c r="AA28" s="61"/>
+      <c r="AB28" s="61"/>
+      <c r="AC28" s="61"/>
+      <c r="AD28" s="60"/>
+      <c r="AE28" s="60"/>
+      <c r="AF28" s="60"/>
+      <c r="AG28" s="60"/>
+      <c r="AH28" s="60"/>
+      <c r="AI28" s="60"/>
+      <c r="AJ28" s="60"/>
+      <c r="AK28" s="60"/>
+      <c r="AL28" s="60"/>
+      <c r="AM28" s="60"/>
+      <c r="AN28" s="60"/>
+      <c r="AO28" s="60"/>
+      <c r="AP28" s="60"/>
+      <c r="AQ28" s="60"/>
+      <c r="AR28" s="60"/>
+      <c r="AS28" s="60"/>
+      <c r="AT28" s="60"/>
+      <c r="AU28" s="60"/>
+      <c r="AV28" s="61"/>
+      <c r="AW28" s="61"/>
+      <c r="AX28" s="61"/>
+      <c r="AY28" s="61"/>
+      <c r="AZ28" s="61"/>
+      <c r="BA28" s="61"/>
+      <c r="BB28" s="66"/>
+      <c r="BC28" s="10"/>
+      <c r="BD28" s="3"/>
+    </row>
+    <row r="29" spans="4:56" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D29" s="2"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="60"/>
+      <c r="K29" s="60"/>
+      <c r="L29" s="60"/>
+      <c r="M29" s="60"/>
+      <c r="N29" s="60"/>
+      <c r="O29" s="60"/>
+      <c r="P29" s="60"/>
+      <c r="Q29" s="60"/>
+      <c r="R29" s="60"/>
+      <c r="S29" s="60"/>
+      <c r="T29" s="60"/>
+      <c r="U29" s="60"/>
+      <c r="V29" s="60"/>
+      <c r="W29" s="60"/>
+      <c r="X29" s="61"/>
+      <c r="Y29" s="61"/>
+      <c r="Z29" s="61"/>
+      <c r="AA29" s="61"/>
+      <c r="AB29" s="61"/>
+      <c r="AC29" s="61"/>
+      <c r="AD29" s="60"/>
+      <c r="AE29" s="60"/>
+      <c r="AF29" s="60"/>
+      <c r="AG29" s="60"/>
+      <c r="AH29" s="60"/>
+      <c r="AI29" s="60"/>
+      <c r="AJ29" s="60"/>
+      <c r="AK29" s="60"/>
+      <c r="AL29" s="60"/>
+      <c r="AM29" s="60"/>
+      <c r="AN29" s="60"/>
+      <c r="AO29" s="60"/>
+      <c r="AP29" s="60"/>
+      <c r="AQ29" s="60"/>
+      <c r="AR29" s="60"/>
+      <c r="AS29" s="60"/>
+      <c r="AT29" s="60"/>
+      <c r="AU29" s="60"/>
+      <c r="AV29" s="61"/>
+      <c r="AW29" s="61"/>
+      <c r="AX29" s="61"/>
+      <c r="AY29" s="61"/>
+      <c r="AZ29" s="61"/>
+      <c r="BA29" s="61"/>
+      <c r="BB29" s="66"/>
+      <c r="BC29" s="10"/>
+      <c r="BD29" s="3"/>
+    </row>
+    <row r="30" spans="4:56" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D30" s="2"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="60"/>
+      <c r="J30" s="60"/>
+      <c r="K30" s="60"/>
+      <c r="L30" s="60"/>
+      <c r="M30" s="60"/>
+      <c r="N30" s="60"/>
+      <c r="O30" s="60"/>
+      <c r="P30" s="60"/>
+      <c r="Q30" s="60"/>
+      <c r="R30" s="60"/>
+      <c r="S30" s="60"/>
+      <c r="T30" s="60"/>
+      <c r="U30" s="60"/>
+      <c r="V30" s="60"/>
+      <c r="W30" s="60"/>
+      <c r="X30" s="61"/>
+      <c r="Y30" s="61"/>
+      <c r="Z30" s="61"/>
+      <c r="AA30" s="61"/>
+      <c r="AB30" s="61"/>
+      <c r="AC30" s="61"/>
+      <c r="AD30" s="60"/>
+      <c r="AE30" s="60"/>
+      <c r="AF30" s="60"/>
+      <c r="AG30" s="60"/>
+      <c r="AH30" s="60"/>
+      <c r="AI30" s="60"/>
+      <c r="AJ30" s="60"/>
+      <c r="AK30" s="60"/>
+      <c r="AL30" s="60"/>
+      <c r="AM30" s="60"/>
+      <c r="AN30" s="60"/>
+      <c r="AO30" s="60"/>
+      <c r="AP30" s="60"/>
+      <c r="AQ30" s="60"/>
+      <c r="AR30" s="60"/>
+      <c r="AS30" s="60"/>
+      <c r="AT30" s="60"/>
+      <c r="AU30" s="60"/>
+      <c r="AV30" s="61"/>
+      <c r="AW30" s="61"/>
+      <c r="AX30" s="61"/>
+      <c r="AY30" s="61"/>
+      <c r="AZ30" s="61"/>
+      <c r="BA30" s="61"/>
+      <c r="BB30" s="66"/>
+      <c r="BC30" s="10"/>
+      <c r="BD30" s="3"/>
+    </row>
+    <row r="31" spans="4:56" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D31" s="2"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="60"/>
+      <c r="I31" s="60"/>
+      <c r="J31" s="60"/>
+      <c r="K31" s="60"/>
+      <c r="L31" s="60"/>
+      <c r="M31" s="60"/>
+      <c r="N31" s="60"/>
+      <c r="O31" s="60"/>
+      <c r="P31" s="60"/>
+      <c r="Q31" s="60"/>
+      <c r="R31" s="60"/>
+      <c r="S31" s="60"/>
+      <c r="T31" s="60"/>
+      <c r="U31" s="60"/>
+      <c r="V31" s="60"/>
+      <c r="W31" s="60"/>
+      <c r="X31" s="61"/>
+      <c r="Y31" s="61"/>
+      <c r="Z31" s="61"/>
+      <c r="AA31" s="61"/>
+      <c r="AB31" s="61"/>
+      <c r="AC31" s="61"/>
+      <c r="AD31" s="60"/>
+      <c r="AE31" s="60"/>
+      <c r="AF31" s="60"/>
+      <c r="AG31" s="60"/>
+      <c r="AH31" s="60"/>
+      <c r="AI31" s="60"/>
+      <c r="AJ31" s="60"/>
+      <c r="AK31" s="60"/>
+      <c r="AL31" s="60"/>
+      <c r="AM31" s="60"/>
+      <c r="AN31" s="60"/>
+      <c r="AO31" s="60"/>
+      <c r="AP31" s="60"/>
+      <c r="AQ31" s="60"/>
+      <c r="AR31" s="60"/>
+      <c r="AS31" s="60"/>
+      <c r="AT31" s="60"/>
+      <c r="AU31" s="60"/>
+      <c r="AV31" s="61"/>
+      <c r="AW31" s="61"/>
+      <c r="AX31" s="61"/>
+      <c r="AY31" s="61"/>
+      <c r="AZ31" s="61"/>
+      <c r="BA31" s="61"/>
+      <c r="BB31" s="66"/>
+      <c r="BC31" s="10"/>
+      <c r="BD31" s="3"/>
+    </row>
+    <row r="32" spans="4:56" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D32" s="2"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="65"/>
+      <c r="G32" s="60"/>
+      <c r="H32" s="60"/>
+      <c r="I32" s="60"/>
+      <c r="J32" s="60"/>
+      <c r="K32" s="60"/>
+      <c r="L32" s="60"/>
+      <c r="M32" s="60"/>
+      <c r="N32" s="60"/>
+      <c r="O32" s="60"/>
+      <c r="P32" s="60"/>
+      <c r="Q32" s="60"/>
+      <c r="R32" s="60"/>
+      <c r="S32" s="60"/>
+      <c r="T32" s="60"/>
+      <c r="U32" s="60"/>
+      <c r="V32" s="60"/>
+      <c r="W32" s="60"/>
+      <c r="X32" s="61"/>
+      <c r="Y32" s="61"/>
+      <c r="Z32" s="61"/>
+      <c r="AA32" s="61"/>
+      <c r="AB32" s="61"/>
+      <c r="AC32" s="61"/>
+      <c r="AD32" s="60"/>
+      <c r="AE32" s="60"/>
+      <c r="AF32" s="60"/>
+      <c r="AG32" s="60"/>
+      <c r="AH32" s="60"/>
+      <c r="AI32" s="60"/>
+      <c r="AJ32" s="60"/>
+      <c r="AK32" s="60"/>
+      <c r="AL32" s="60"/>
+      <c r="AM32" s="60"/>
+      <c r="AN32" s="60"/>
+      <c r="AO32" s="60"/>
+      <c r="AP32" s="60"/>
+      <c r="AQ32" s="60"/>
+      <c r="AR32" s="60"/>
+      <c r="AS32" s="60"/>
+      <c r="AT32" s="60"/>
+      <c r="AU32" s="60"/>
+      <c r="AV32" s="61"/>
+      <c r="AW32" s="61"/>
+      <c r="AX32" s="61"/>
+      <c r="AY32" s="61"/>
+      <c r="AZ32" s="61"/>
+      <c r="BA32" s="61"/>
+      <c r="BB32" s="66"/>
+      <c r="BC32" s="10"/>
+      <c r="BD32" s="3"/>
+    </row>
+    <row r="33" spans="4:56" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D33" s="2"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="60"/>
+      <c r="I33" s="60"/>
+      <c r="J33" s="60"/>
+      <c r="K33" s="60"/>
+      <c r="L33" s="60"/>
+      <c r="M33" s="60"/>
+      <c r="N33" s="60"/>
+      <c r="O33" s="60"/>
+      <c r="P33" s="60"/>
+      <c r="Q33" s="60"/>
+      <c r="R33" s="60"/>
+      <c r="S33" s="60"/>
+      <c r="T33" s="60"/>
+      <c r="U33" s="60"/>
+      <c r="V33" s="60"/>
+      <c r="W33" s="60"/>
+      <c r="X33" s="61"/>
+      <c r="Y33" s="61"/>
+      <c r="Z33" s="61"/>
+      <c r="AA33" s="61"/>
+      <c r="AB33" s="61"/>
+      <c r="AC33" s="61"/>
+      <c r="AD33" s="60"/>
+      <c r="AE33" s="60"/>
+      <c r="AF33" s="60"/>
+      <c r="AG33" s="60"/>
+      <c r="AH33" s="60"/>
+      <c r="AI33" s="60"/>
+      <c r="AJ33" s="60"/>
+      <c r="AK33" s="60"/>
+      <c r="AL33" s="60"/>
+      <c r="AM33" s="60"/>
+      <c r="AN33" s="60"/>
+      <c r="AO33" s="60"/>
+      <c r="AP33" s="60"/>
+      <c r="AQ33" s="60"/>
+      <c r="AR33" s="60"/>
+      <c r="AS33" s="60"/>
+      <c r="AT33" s="60"/>
+      <c r="AU33" s="60"/>
+      <c r="AV33" s="61"/>
+      <c r="AW33" s="61"/>
+      <c r="AX33" s="61"/>
+      <c r="AY33" s="61"/>
+      <c r="AZ33" s="61"/>
+      <c r="BA33" s="61"/>
+      <c r="BB33" s="66"/>
+      <c r="BC33" s="10"/>
+      <c r="BD33" s="3"/>
+    </row>
+    <row r="34" spans="4:56" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D34" s="2"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="65"/>
+      <c r="G34" s="60"/>
+      <c r="H34" s="60"/>
+      <c r="I34" s="60"/>
+      <c r="J34" s="60"/>
+      <c r="K34" s="60"/>
+      <c r="L34" s="60"/>
+      <c r="M34" s="60"/>
+      <c r="N34" s="60"/>
+      <c r="O34" s="60"/>
+      <c r="P34" s="60"/>
+      <c r="Q34" s="60"/>
+      <c r="R34" s="60"/>
+      <c r="S34" s="60"/>
+      <c r="T34" s="60"/>
+      <c r="U34" s="60"/>
+      <c r="V34" s="60"/>
+      <c r="W34" s="60"/>
+      <c r="X34" s="61"/>
+      <c r="Y34" s="61"/>
+      <c r="Z34" s="61"/>
+      <c r="AA34" s="61"/>
+      <c r="AB34" s="61"/>
+      <c r="AC34" s="61"/>
+      <c r="AD34" s="60"/>
+      <c r="AE34" s="60"/>
+      <c r="AF34" s="60"/>
+      <c r="AG34" s="60"/>
+      <c r="AH34" s="60"/>
+      <c r="AI34" s="60"/>
+      <c r="AJ34" s="60"/>
+      <c r="AK34" s="60"/>
+      <c r="AL34" s="60"/>
+      <c r="AM34" s="60"/>
+      <c r="AN34" s="60"/>
+      <c r="AO34" s="60"/>
+      <c r="AP34" s="60"/>
+      <c r="AQ34" s="60"/>
+      <c r="AR34" s="60"/>
+      <c r="AS34" s="60"/>
+      <c r="AT34" s="60"/>
+      <c r="AU34" s="60"/>
+      <c r="AV34" s="61"/>
+      <c r="AW34" s="61"/>
+      <c r="AX34" s="61"/>
+      <c r="AY34" s="61"/>
+      <c r="AZ34" s="61"/>
+      <c r="BA34" s="61"/>
+      <c r="BB34" s="66"/>
+      <c r="BC34" s="10"/>
+      <c r="BD34" s="3"/>
+    </row>
+    <row r="35" spans="4:56" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D35" s="2"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="65"/>
+      <c r="G35" s="60"/>
+      <c r="H35" s="60"/>
+      <c r="I35" s="60"/>
+      <c r="J35" s="60"/>
+      <c r="K35" s="60"/>
+      <c r="L35" s="60"/>
+      <c r="M35" s="60"/>
+      <c r="N35" s="60"/>
+      <c r="O35" s="60"/>
+      <c r="P35" s="60"/>
+      <c r="Q35" s="60"/>
+      <c r="R35" s="60"/>
+      <c r="S35" s="60"/>
+      <c r="T35" s="60"/>
+      <c r="U35" s="60"/>
+      <c r="V35" s="60"/>
+      <c r="W35" s="60"/>
+      <c r="X35" s="61"/>
+      <c r="Y35" s="61"/>
+      <c r="Z35" s="61"/>
+      <c r="AA35" s="61"/>
+      <c r="AB35" s="61"/>
+      <c r="AC35" s="61"/>
+      <c r="AD35" s="60"/>
+      <c r="AE35" s="60"/>
+      <c r="AF35" s="60"/>
+      <c r="AG35" s="60"/>
+      <c r="AH35" s="60"/>
+      <c r="AI35" s="60"/>
+      <c r="AJ35" s="60"/>
+      <c r="AK35" s="60"/>
+      <c r="AL35" s="60"/>
+      <c r="AM35" s="60"/>
+      <c r="AN35" s="60"/>
+      <c r="AO35" s="60"/>
+      <c r="AP35" s="60"/>
+      <c r="AQ35" s="60"/>
+      <c r="AR35" s="60"/>
+      <c r="AS35" s="60"/>
+      <c r="AT35" s="60"/>
+      <c r="AU35" s="60"/>
+      <c r="AV35" s="61"/>
+      <c r="AW35" s="61"/>
+      <c r="AX35" s="61"/>
+      <c r="AY35" s="61"/>
+      <c r="AZ35" s="61"/>
+      <c r="BA35" s="61"/>
+      <c r="BB35" s="66"/>
+      <c r="BC35" s="10"/>
+      <c r="BD35" s="3"/>
+    </row>
+    <row r="36" spans="4:56" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D36" s="2"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="65"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="60"/>
+      <c r="I36" s="60"/>
+      <c r="J36" s="60"/>
+      <c r="K36" s="60"/>
+      <c r="L36" s="60"/>
+      <c r="M36" s="60"/>
+      <c r="N36" s="60"/>
+      <c r="O36" s="60"/>
+      <c r="P36" s="60"/>
+      <c r="Q36" s="60"/>
+      <c r="R36" s="60"/>
+      <c r="S36" s="60"/>
+      <c r="T36" s="60"/>
+      <c r="U36" s="60"/>
+      <c r="V36" s="60"/>
+      <c r="W36" s="60"/>
+      <c r="X36" s="61"/>
+      <c r="Y36" s="61"/>
+      <c r="Z36" s="61"/>
+      <c r="AA36" s="61"/>
+      <c r="AB36" s="61"/>
+      <c r="AC36" s="61"/>
+      <c r="AD36" s="60"/>
+      <c r="AE36" s="60"/>
+      <c r="AF36" s="60"/>
+      <c r="AG36" s="60"/>
+      <c r="AH36" s="60"/>
+      <c r="AI36" s="60"/>
+      <c r="AJ36" s="60"/>
+      <c r="AK36" s="60"/>
+      <c r="AL36" s="60"/>
+      <c r="AM36" s="60"/>
+      <c r="AN36" s="60"/>
+      <c r="AO36" s="60"/>
+      <c r="AP36" s="60"/>
+      <c r="AQ36" s="60"/>
+      <c r="AR36" s="60"/>
+      <c r="AS36" s="60"/>
+      <c r="AT36" s="60"/>
+      <c r="AU36" s="60"/>
+      <c r="AV36" s="61"/>
+      <c r="AW36" s="61"/>
+      <c r="AX36" s="61"/>
+      <c r="AY36" s="61"/>
+      <c r="AZ36" s="61"/>
+      <c r="BA36" s="61"/>
+      <c r="BB36" s="66"/>
+      <c r="BC36" s="10"/>
+      <c r="BD36" s="3"/>
+    </row>
+    <row r="37" spans="4:56" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D37" s="2"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="65"/>
+      <c r="G37" s="60"/>
+      <c r="H37" s="60"/>
+      <c r="I37" s="60"/>
+      <c r="J37" s="60"/>
+      <c r="K37" s="60"/>
+      <c r="L37" s="60"/>
+      <c r="M37" s="60"/>
+      <c r="N37" s="60"/>
+      <c r="O37" s="60"/>
+      <c r="P37" s="60"/>
+      <c r="Q37" s="60"/>
+      <c r="R37" s="60"/>
+      <c r="S37" s="60"/>
+      <c r="T37" s="60"/>
+      <c r="U37" s="60"/>
+      <c r="V37" s="60"/>
+      <c r="W37" s="60"/>
+      <c r="X37" s="61"/>
+      <c r="Y37" s="61"/>
+      <c r="Z37" s="61"/>
+      <c r="AA37" s="61"/>
+      <c r="AB37" s="61"/>
+      <c r="AC37" s="61"/>
+      <c r="AD37" s="60"/>
+      <c r="AE37" s="60"/>
+      <c r="AF37" s="60"/>
+      <c r="AG37" s="60"/>
+      <c r="AH37" s="60"/>
+      <c r="AI37" s="60"/>
+      <c r="AJ37" s="60"/>
+      <c r="AK37" s="60"/>
+      <c r="AL37" s="60"/>
+      <c r="AM37" s="60"/>
+      <c r="AN37" s="60"/>
+      <c r="AO37" s="60"/>
+      <c r="AP37" s="60"/>
+      <c r="AQ37" s="60"/>
+      <c r="AR37" s="60"/>
+      <c r="AS37" s="60"/>
+      <c r="AT37" s="60"/>
+      <c r="AU37" s="60"/>
+      <c r="AV37" s="61"/>
+      <c r="AW37" s="61"/>
+      <c r="AX37" s="61"/>
+      <c r="AY37" s="61"/>
+      <c r="AZ37" s="61"/>
+      <c r="BA37" s="61"/>
+      <c r="BB37" s="66"/>
+      <c r="BC37" s="10"/>
+      <c r="BD37" s="3"/>
+    </row>
+    <row r="38" spans="4:56" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D38" s="2"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="65"/>
+      <c r="G38" s="60"/>
+      <c r="H38" s="60"/>
+      <c r="I38" s="60"/>
+      <c r="J38" s="60"/>
+      <c r="K38" s="60"/>
+      <c r="L38" s="60"/>
+      <c r="M38" s="60"/>
+      <c r="N38" s="60"/>
+      <c r="O38" s="60"/>
+      <c r="P38" s="60"/>
+      <c r="Q38" s="60"/>
+      <c r="R38" s="60"/>
+      <c r="S38" s="60"/>
+      <c r="T38" s="60"/>
+      <c r="U38" s="60"/>
+      <c r="V38" s="60"/>
+      <c r="W38" s="60"/>
+      <c r="X38" s="61"/>
+      <c r="Y38" s="61"/>
+      <c r="Z38" s="61"/>
+      <c r="AA38" s="61"/>
+      <c r="AB38" s="61"/>
+      <c r="AC38" s="61"/>
+      <c r="AD38" s="60"/>
+      <c r="AE38" s="60"/>
+      <c r="AF38" s="60"/>
+      <c r="AG38" s="60"/>
+      <c r="AH38" s="60"/>
+      <c r="AI38" s="60"/>
+      <c r="AJ38" s="60"/>
+      <c r="AK38" s="60"/>
+      <c r="AL38" s="60"/>
+      <c r="AM38" s="60"/>
+      <c r="AN38" s="60"/>
+      <c r="AO38" s="60"/>
+      <c r="AP38" s="60"/>
+      <c r="AQ38" s="60"/>
+      <c r="AR38" s="60"/>
+      <c r="AS38" s="60"/>
+      <c r="AT38" s="60"/>
+      <c r="AU38" s="60"/>
+      <c r="AV38" s="61"/>
+      <c r="AW38" s="61"/>
+      <c r="AX38" s="61"/>
+      <c r="AY38" s="61"/>
+      <c r="AZ38" s="61"/>
+      <c r="BA38" s="61"/>
+      <c r="BB38" s="66"/>
+      <c r="BC38" s="10"/>
+      <c r="BD38" s="3"/>
+    </row>
+    <row r="39" spans="4:56" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D39" s="2"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="65"/>
+      <c r="G39" s="60"/>
+      <c r="H39" s="60"/>
+      <c r="I39" s="60"/>
+      <c r="J39" s="60"/>
+      <c r="K39" s="60"/>
+      <c r="L39" s="60"/>
+      <c r="M39" s="60"/>
+      <c r="N39" s="60"/>
+      <c r="O39" s="60"/>
+      <c r="P39" s="60"/>
+      <c r="Q39" s="60"/>
+      <c r="R39" s="60"/>
+      <c r="S39" s="60"/>
+      <c r="T39" s="60"/>
+      <c r="U39" s="60"/>
+      <c r="V39" s="60"/>
+      <c r="W39" s="60"/>
+      <c r="X39" s="61"/>
+      <c r="Y39" s="61"/>
+      <c r="Z39" s="61"/>
+      <c r="AA39" s="61"/>
+      <c r="AB39" s="61"/>
+      <c r="AC39" s="61"/>
+      <c r="AD39" s="60"/>
+      <c r="AE39" s="60"/>
+      <c r="AF39" s="60"/>
+      <c r="AG39" s="60"/>
+      <c r="AH39" s="60"/>
+      <c r="AI39" s="60"/>
+      <c r="AJ39" s="60"/>
+      <c r="AK39" s="60"/>
+      <c r="AL39" s="60"/>
+      <c r="AM39" s="60"/>
+      <c r="AN39" s="60"/>
+      <c r="AO39" s="60"/>
+      <c r="AP39" s="60"/>
+      <c r="AQ39" s="60"/>
+      <c r="AR39" s="60"/>
+      <c r="AS39" s="60"/>
+      <c r="AT39" s="60"/>
+      <c r="AU39" s="60"/>
+      <c r="AV39" s="61"/>
+      <c r="AW39" s="61"/>
+      <c r="AX39" s="61"/>
+      <c r="AY39" s="61"/>
+      <c r="AZ39" s="61"/>
+      <c r="BA39" s="61"/>
+      <c r="BB39" s="66"/>
+      <c r="BC39" s="10"/>
+      <c r="BD39" s="3"/>
+    </row>
+    <row r="40" spans="4:56" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D40" s="2"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="65"/>
+      <c r="G40" s="60"/>
+      <c r="H40" s="60"/>
+      <c r="I40" s="60"/>
+      <c r="J40" s="60"/>
+      <c r="K40" s="60"/>
+      <c r="L40" s="60"/>
+      <c r="M40" s="60"/>
+      <c r="N40" s="60"/>
+      <c r="O40" s="60"/>
+      <c r="P40" s="60"/>
+      <c r="Q40" s="60"/>
+      <c r="R40" s="60"/>
+      <c r="S40" s="60"/>
+      <c r="T40" s="60"/>
+      <c r="U40" s="60"/>
+      <c r="V40" s="60"/>
+      <c r="W40" s="60"/>
+      <c r="X40" s="61"/>
+      <c r="Y40" s="61"/>
+      <c r="Z40" s="61"/>
+      <c r="AA40" s="61"/>
+      <c r="AB40" s="61"/>
+      <c r="AC40" s="61"/>
+      <c r="AD40" s="60"/>
+      <c r="AE40" s="60"/>
+      <c r="AF40" s="60"/>
+      <c r="AG40" s="60"/>
+      <c r="AH40" s="60"/>
+      <c r="AI40" s="60"/>
+      <c r="AJ40" s="60"/>
+      <c r="AK40" s="60"/>
+      <c r="AL40" s="60"/>
+      <c r="AM40" s="60"/>
+      <c r="AN40" s="60"/>
+      <c r="AO40" s="60"/>
+      <c r="AP40" s="60"/>
+      <c r="AQ40" s="60"/>
+      <c r="AR40" s="60"/>
+      <c r="AS40" s="60"/>
+      <c r="AT40" s="60"/>
+      <c r="AU40" s="60"/>
+      <c r="AV40" s="61"/>
+      <c r="AW40" s="61"/>
+      <c r="AX40" s="61"/>
+      <c r="AY40" s="61"/>
+      <c r="AZ40" s="61"/>
+      <c r="BA40" s="61"/>
+      <c r="BB40" s="66"/>
+      <c r="BC40" s="10"/>
+      <c r="BD40" s="3"/>
+    </row>
+    <row r="41" spans="4:56" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D41" s="2"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="65"/>
+      <c r="G41" s="60"/>
+      <c r="H41" s="60"/>
+      <c r="I41" s="60"/>
+      <c r="J41" s="60"/>
+      <c r="K41" s="60"/>
+      <c r="L41" s="60"/>
+      <c r="M41" s="60"/>
+      <c r="N41" s="60"/>
+      <c r="O41" s="60"/>
+      <c r="P41" s="60"/>
+      <c r="Q41" s="60"/>
+      <c r="R41" s="60"/>
+      <c r="S41" s="60"/>
+      <c r="T41" s="60"/>
+      <c r="U41" s="60"/>
+      <c r="V41" s="60"/>
+      <c r="W41" s="60"/>
+      <c r="X41" s="61"/>
+      <c r="Y41" s="61"/>
+      <c r="Z41" s="61"/>
+      <c r="AA41" s="61"/>
+      <c r="AB41" s="61"/>
+      <c r="AC41" s="61"/>
+      <c r="AD41" s="60"/>
+      <c r="AE41" s="60"/>
+      <c r="AF41" s="60"/>
+      <c r="AG41" s="60"/>
+      <c r="AH41" s="60"/>
+      <c r="AI41" s="60"/>
+      <c r="AJ41" s="60"/>
+      <c r="AK41" s="60"/>
+      <c r="AL41" s="60"/>
+      <c r="AM41" s="60"/>
+      <c r="AN41" s="60"/>
+      <c r="AO41" s="60"/>
+      <c r="AP41" s="60"/>
+      <c r="AQ41" s="60"/>
+      <c r="AR41" s="60"/>
+      <c r="AS41" s="60"/>
+      <c r="AT41" s="60"/>
+      <c r="AU41" s="60"/>
+      <c r="AV41" s="61"/>
+      <c r="AW41" s="61"/>
+      <c r="AX41" s="61"/>
+      <c r="AY41" s="61"/>
+      <c r="AZ41" s="61"/>
+      <c r="BA41" s="61"/>
+      <c r="BB41" s="66"/>
+      <c r="BC41" s="10"/>
+      <c r="BD41" s="3"/>
+    </row>
+    <row r="42" spans="4:56" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D42" s="2"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="68"/>
+      <c r="H42" s="68"/>
+      <c r="I42" s="68"/>
+      <c r="J42" s="68"/>
+      <c r="K42" s="68"/>
+      <c r="L42" s="68"/>
+      <c r="M42" s="68"/>
+      <c r="N42" s="68"/>
+      <c r="O42" s="68"/>
+      <c r="P42" s="68"/>
+      <c r="Q42" s="68"/>
+      <c r="R42" s="68"/>
+      <c r="S42" s="68"/>
+      <c r="T42" s="68"/>
+      <c r="U42" s="68"/>
+      <c r="V42" s="68"/>
+      <c r="W42" s="68"/>
+      <c r="X42" s="69"/>
+      <c r="Y42" s="69"/>
+      <c r="Z42" s="69"/>
+      <c r="AA42" s="69"/>
+      <c r="AB42" s="69"/>
+      <c r="AC42" s="69"/>
+      <c r="AD42" s="68"/>
+      <c r="AE42" s="68"/>
+      <c r="AF42" s="68"/>
+      <c r="AG42" s="68"/>
+      <c r="AH42" s="68"/>
+      <c r="AI42" s="68"/>
+      <c r="AJ42" s="68"/>
+      <c r="AK42" s="68"/>
+      <c r="AL42" s="68"/>
+      <c r="AM42" s="68"/>
+      <c r="AN42" s="68"/>
+      <c r="AO42" s="68"/>
+      <c r="AP42" s="68"/>
+      <c r="AQ42" s="68"/>
+      <c r="AR42" s="68"/>
+      <c r="AS42" s="68"/>
+      <c r="AT42" s="68"/>
+      <c r="AU42" s="68"/>
+      <c r="AV42" s="69"/>
+      <c r="AW42" s="69"/>
+      <c r="AX42" s="69"/>
+      <c r="AY42" s="69"/>
+      <c r="AZ42" s="69"/>
+      <c r="BA42" s="69"/>
+      <c r="BB42" s="70"/>
+      <c r="BC42" s="10"/>
+      <c r="BD42" s="3"/>
+    </row>
+    <row r="43" spans="4:56" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D43" s="2"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="10"/>
+      <c r="R43" s="10"/>
+      <c r="S43" s="10"/>
+      <c r="T43" s="10"/>
+      <c r="U43" s="10"/>
+      <c r="V43" s="10"/>
+      <c r="W43" s="10"/>
+      <c r="X43" s="10"/>
+      <c r="Y43" s="10"/>
+      <c r="Z43" s="10"/>
+      <c r="AA43" s="10"/>
+      <c r="AB43" s="10"/>
+      <c r="AC43" s="10"/>
+      <c r="AD43" s="10"/>
+      <c r="AE43" s="10"/>
+      <c r="AF43" s="10"/>
+      <c r="AG43" s="10"/>
+      <c r="AH43" s="10"/>
+      <c r="AI43" s="10"/>
+      <c r="AJ43" s="10"/>
+      <c r="AK43" s="10"/>
+      <c r="AL43" s="10"/>
+      <c r="AM43" s="10"/>
+      <c r="AN43" s="10"/>
+      <c r="AO43" s="10"/>
+      <c r="AP43" s="10"/>
+      <c r="AQ43" s="10"/>
+      <c r="AR43" s="10"/>
+      <c r="AS43" s="10"/>
+      <c r="AT43" s="10"/>
+      <c r="AU43" s="10"/>
+      <c r="AV43" s="10"/>
+      <c r="AW43" s="10"/>
+      <c r="AX43" s="10"/>
+      <c r="AY43" s="10"/>
+      <c r="AZ43" s="10"/>
+      <c r="BA43" s="10"/>
+      <c r="BB43" s="10"/>
+      <c r="BC43" s="10"/>
+      <c r="BD43" s="3"/>
+    </row>
+    <row r="44" spans="4:56" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D44" s="4"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="11"/>
+      <c r="P44" s="11"/>
+      <c r="Q44" s="11"/>
+      <c r="R44" s="11"/>
+      <c r="S44" s="11"/>
+      <c r="T44" s="11"/>
+      <c r="U44" s="11"/>
+      <c r="V44" s="11"/>
+      <c r="W44" s="11"/>
+      <c r="X44" s="11"/>
+      <c r="Y44" s="11"/>
+      <c r="Z44" s="11"/>
+      <c r="AA44" s="11"/>
+      <c r="AB44" s="11"/>
+      <c r="AC44" s="11"/>
+      <c r="AD44" s="11"/>
+      <c r="AE44" s="11"/>
+      <c r="AF44" s="11"/>
+      <c r="AG44" s="11"/>
+      <c r="AH44" s="11"/>
+      <c r="AI44" s="11"/>
+      <c r="AJ44" s="11"/>
+      <c r="AK44" s="11"/>
+      <c r="AL44" s="11"/>
+      <c r="AM44" s="11"/>
+      <c r="AN44" s="11"/>
+      <c r="AO44" s="11"/>
+      <c r="AP44" s="11"/>
+      <c r="AQ44" s="11"/>
+      <c r="AR44" s="11"/>
+      <c r="AS44" s="11"/>
+      <c r="AT44" s="11"/>
+      <c r="AU44" s="11"/>
+      <c r="AV44" s="11"/>
+      <c r="AW44" s="11"/>
+      <c r="AX44" s="11"/>
+      <c r="AY44" s="11"/>
+      <c r="AZ44" s="11"/>
+      <c r="BA44" s="11"/>
+      <c r="BB44" s="11"/>
+      <c r="BC44" s="11"/>
+      <c r="BD44" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="68">
+    <mergeCell ref="F41:W42"/>
+    <mergeCell ref="X41:AC42"/>
+    <mergeCell ref="AD41:AL42"/>
+    <mergeCell ref="AM41:AU42"/>
+    <mergeCell ref="AV41:BB42"/>
+    <mergeCell ref="AF8:AR10"/>
+    <mergeCell ref="F37:W38"/>
+    <mergeCell ref="X37:AC38"/>
+    <mergeCell ref="AD37:AL38"/>
+    <mergeCell ref="AM37:AU38"/>
+    <mergeCell ref="AV37:BB38"/>
+    <mergeCell ref="F39:W40"/>
+    <mergeCell ref="X39:AC40"/>
+    <mergeCell ref="AD39:AL40"/>
+    <mergeCell ref="AM39:AU40"/>
+    <mergeCell ref="AV39:BB40"/>
+    <mergeCell ref="F33:W34"/>
+    <mergeCell ref="X33:AC34"/>
+    <mergeCell ref="AD33:AL34"/>
+    <mergeCell ref="AM33:AU34"/>
+    <mergeCell ref="AV33:BB34"/>
+    <mergeCell ref="F35:W36"/>
+    <mergeCell ref="X35:AC36"/>
+    <mergeCell ref="AD35:AL36"/>
+    <mergeCell ref="AM35:AU36"/>
+    <mergeCell ref="AV35:BB36"/>
+    <mergeCell ref="F29:W30"/>
+    <mergeCell ref="X29:AC30"/>
+    <mergeCell ref="AD29:AL30"/>
+    <mergeCell ref="AM29:AU30"/>
+    <mergeCell ref="AV29:BB30"/>
+    <mergeCell ref="F31:W32"/>
+    <mergeCell ref="X31:AC32"/>
+    <mergeCell ref="AD31:AL32"/>
+    <mergeCell ref="AM31:AU32"/>
+    <mergeCell ref="AV31:BB32"/>
+    <mergeCell ref="F25:W26"/>
+    <mergeCell ref="X25:AC26"/>
+    <mergeCell ref="AD25:AL26"/>
+    <mergeCell ref="AM25:AU26"/>
+    <mergeCell ref="AV25:BB26"/>
+    <mergeCell ref="F27:W28"/>
+    <mergeCell ref="X27:AC28"/>
+    <mergeCell ref="AD27:AL28"/>
+    <mergeCell ref="AM27:AU28"/>
+    <mergeCell ref="AV27:BB28"/>
+    <mergeCell ref="F21:W22"/>
+    <mergeCell ref="X21:AC22"/>
+    <mergeCell ref="AD21:AL22"/>
+    <mergeCell ref="AM21:AU22"/>
+    <mergeCell ref="AV21:BB22"/>
+    <mergeCell ref="F23:W24"/>
+    <mergeCell ref="X23:AC24"/>
+    <mergeCell ref="AD23:AL24"/>
+    <mergeCell ref="AM23:AU24"/>
+    <mergeCell ref="AV23:BB24"/>
+    <mergeCell ref="F16:BB17"/>
+    <mergeCell ref="X19:AC20"/>
+    <mergeCell ref="AD19:AL20"/>
+    <mergeCell ref="AM19:AU20"/>
+    <mergeCell ref="AV19:BB20"/>
+    <mergeCell ref="F19:W20"/>
+    <mergeCell ref="F7:L8"/>
+    <mergeCell ref="F10:L11"/>
+    <mergeCell ref="N7:Y8"/>
+    <mergeCell ref="N10:Y11"/>
+    <mergeCell ref="Z7:AA8"/>
+    <mergeCell ref="Z10:AA11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
 </file>